--- a/opr2/Лабораторная работа 14.xlsx
+++ b/opr2/Лабораторная работа 14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artsiom_Kharkevich\Study\study\opr2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\deserof\Desktop\study\opr2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB93E0F-651A-49D9-B6DB-8DCA656351E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C501823E-6A6E-4A1F-9647-971667FAE1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>R</t>
   </si>
@@ -50,10 +48,13 @@
     <t>(1-2) насыщено</t>
   </si>
   <si>
-    <t>0, 9, 11</t>
+    <t>1-3-6</t>
   </si>
   <si>
-    <t>1-3-6</t>
+    <t>41, 50, 52</t>
+  </si>
+  <si>
+    <t>min 41</t>
   </si>
 </sst>
 </file>
@@ -117,7 +118,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="H2:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,15 +601,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -627,7 +628,7 @@
     </row>
     <row r="14" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>

--- a/opr2/Лабораторная работа 14.xlsx
+++ b/opr2/Лабораторная работа 14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\deserof\Desktop\study\opr2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artsiom_Kharkevich\Study\study\opr2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C501823E-6A6E-4A1F-9647-971667FAE1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C68716-1012-4315-87A4-FC3291F4D111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>R</t>
   </si>
@@ -45,9 +45,6 @@
     <t>1-2-5-6</t>
   </si>
   <si>
-    <t>(1-2) насыщено</t>
-  </si>
-  <si>
     <t>1-3-6</t>
   </si>
   <si>
@@ -55,6 +52,84 @@
   </si>
   <si>
     <t>min 41</t>
+  </si>
+  <si>
+    <t>1-3-4-6</t>
+  </si>
+  <si>
+    <t>1-3-2-5-6</t>
+  </si>
+  <si>
+    <t>1-3-2-4-6</t>
+  </si>
+  <si>
+    <t>72, 16, 40</t>
+  </si>
+  <si>
+    <t>min 12</t>
+  </si>
+  <si>
+    <t>min 16</t>
+  </si>
+  <si>
+    <t>1-2 насыщено</t>
+  </si>
+  <si>
+    <t>2-4 насыщено</t>
+  </si>
+  <si>
+    <t>3-4 насыщено</t>
+  </si>
+  <si>
+    <t>3-6 насыщено</t>
+  </si>
+  <si>
+    <t>56, 12</t>
+  </si>
+  <si>
+    <t>44, 42, 12, 22</t>
+  </si>
+  <si>
+    <t>32, 30, 9, 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min 9 </t>
+  </si>
+  <si>
+    <t>2-5 насыщено</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Разрез на сети</t>
+  </si>
+  <si>
+    <t>Минимальная пропускная способность разреза</t>
+  </si>
+  <si>
+    <t>{(2-5), (2-4), (3-4), (3-6)}</t>
+  </si>
+  <si>
+    <t>R min = 41 + 9 + 12 + 16 + 12 = 90</t>
+  </si>
+  <si>
+    <t>Максимальная величина потока, направленного от истока J в сток S</t>
+  </si>
+  <si>
+    <t>φ max = 41 + 16 + 12 + 12 + 9 = 90</t>
+  </si>
+  <si>
+    <t>Так как R min = φ max = 90, то по теореме Форда – Фалкерсона построенный поток является потоком максимальной мощности.</t>
+  </si>
+  <si>
+    <t>{1,3,2}</t>
+  </si>
+  <si>
+    <t>{4,5,6}</t>
   </si>
 </sst>
 </file>
@@ -118,7 +193,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -137,16 +212,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>108585</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323429</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>439634</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>123581</xdr:rowOff>
+      <xdr:rowOff>119771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -169,8 +244,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="12910185" y="0"/>
+          <a:ext cx="3379049" cy="2024771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>380495</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>143929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A3C63E-E6B7-8F32-4554-78386569971D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3371429" cy="1952381"/>
+          <a:ext cx="4038095" cy="6809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>580518</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF50A44-7EF6-3E03-5115-334B81DE87F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="0"/>
+          <a:ext cx="4057143" cy="7327617"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -445,371 +608,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H2:Q28"/>
+  <dimension ref="H2:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H2" s="2" t="s">
+    <row r="2" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="O2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="P2" s="2">
         <v>2</v>
       </c>
-      <c r="K2" s="2">
+      <c r="Q2" s="2">
         <v>3</v>
       </c>
-      <c r="L2" s="2">
+      <c r="R2" s="2">
         <v>4</v>
       </c>
-      <c r="M2" s="2">
+      <c r="S2" s="2">
         <v>5</v>
       </c>
-      <c r="N2" s="2">
+      <c r="T2" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H3" s="2">
+    <row r="3" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
         <v>41</v>
       </c>
-      <c r="K3" s="1">
+      <c r="Q3" s="1">
         <v>72</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H4" s="2">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="O4" s="1">
         <v>41</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1">
         <v>42</v>
       </c>
-      <c r="L4" s="1">
+      <c r="R4" s="1">
         <v>12</v>
       </c>
-      <c r="M4" s="1">
+      <c r="S4" s="1">
         <v>50</v>
       </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H5" s="2">
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="O5" s="1">
         <v>72</v>
       </c>
-      <c r="J5" s="1">
+      <c r="P5" s="1">
         <v>42</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1">
         <v>16</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H6" s="2">
+    <row r="6" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
         <v>12</v>
       </c>
-      <c r="K6" s="1">
+      <c r="Q6" s="1">
         <v>16</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1">
         <v>10</v>
       </c>
-      <c r="N6" s="1">
+      <c r="T6" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H7" s="2">
+    <row r="7" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
         <v>50</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
         <v>10</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1">
+      <c r="S7" s="1"/>
+      <c r="T7" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H8" s="2">
+    <row r="8" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1">
         <v>12</v>
       </c>
-      <c r="L8" s="1">
+      <c r="R8" s="1">
         <v>40</v>
       </c>
-      <c r="M8" s="1">
+      <c r="S8" s="1">
         <v>52</v>
       </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="11" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H11" s="3" t="s">
+      <c r="T8" s="1"/>
+    </row>
+    <row r="11" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H12" s="3" t="s">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N14" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N16" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N20" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="P20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="R20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="3"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="14:23" x14ac:dyDescent="0.25">
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N22" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N23" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N28" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="N35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>